--- a/data kelompok.xlsx
+++ b/data kelompok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nadira Nisa Alwani\Pasca Sarjana\Kuliah\semester 3\eksplorasi dan visualisasi\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nadira Nisa Alwani\Pasca Sarjana\Kuliah\semester 3\eksplorasi dan visualisasi\dashboard\syntax fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EC346C-9069-48BE-B1E3-02797946BAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84911A23-D577-4CB6-A944-C496C4B2150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE5E3B73-CEF6-40C8-9606-C8845C1683BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{079EA82E-72CC-413A-87C4-509020490270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,9 +43,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,9 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F53C7-D52E-413F-99BD-5FEBAE164AB9}">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A5B4C1-8CCA-4DE3-B778-0EAFE1EEF6DC}">
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,400 +405,800 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>165.5</v>
+      <c r="B2">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>166.5</v>
+      <c r="B3">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>165.5</v>
+      <c r="B4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>167.5</v>
+      <c r="B5">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>165.5</v>
+      <c r="B6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>167.5</v>
+      <c r="B7">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>169.5</v>
+      <c r="B8">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>169.5</v>
+      <c r="B9">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>169.5</v>
+      <c r="B10">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>168.5</v>
+      <c r="B11">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>168.5</v>
+      <c r="B12">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>170.5</v>
+      <c r="B13">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>168.5</v>
+      <c r="B14">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>172.5</v>
+      <c r="B15">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>173.5</v>
+      <c r="B16">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>173.5</v>
+      <c r="B17">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>172.5</v>
+      <c r="B18">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>171.5</v>
+      <c r="B19">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>173.5</v>
+      <c r="B20">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>171.5</v>
+      <c r="B21">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>172.5</v>
+      <c r="B22">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>175.5</v>
+      <c r="B23">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>175.5</v>
+      <c r="B24">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>176.5</v>
+      <c r="B25">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>174.5</v>
+      <c r="B26">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>174.5</v>
+      <c r="B27">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>176.5</v>
+      <c r="B28">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>175.5</v>
+      <c r="B29">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>175.5</v>
+      <c r="B30">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>174.5</v>
+      <c r="B31">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>174.5</v>
+      <c r="B32">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>176.5</v>
+      <c r="B33">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>179.5</v>
+      <c r="B34">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>177.5</v>
+      <c r="B35">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>179.5</v>
+      <c r="B36">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>177.5</v>
+      <c r="B37">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>178.5</v>
+      <c r="B38">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>179.5</v>
+      <c r="B39">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>178.5</v>
+      <c r="B40">
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>182.5</v>
+      <c r="B41">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>182.5</v>
+      <c r="B42">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>180.5</v>
+      <c r="B43">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>180.5</v>
+      <c r="B44">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>182.5</v>
+      <c r="B45">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>180.5</v>
+      <c r="B46">
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>183.5</v>
+      <c r="B47">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>185.5</v>
+      <c r="B48">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>183.5</v>
+      <c r="B49">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>184.5</v>
+      <c r="B50">
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>185.5</v>
+      <c r="B51">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
